--- a/Tests/data-middle.xlsx
+++ b/Tests/data-middle.xlsx
@@ -353,9 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -366,14 +364,14 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <f>H1/D1*C1/B1</f>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B1">
         <v>1.88</v>
       </c>
       <c r="C1">
         <f>-H1/I1</f>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D1" s="1">
         <f>E1*F1*G1</f>
@@ -389,34 +387,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H1">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I1" s="3">
         <f>J1/H1</f>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J1">
         <f>K1*L1</f>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K1">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L1">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A18" si="0">H2/D2*C2/B2</f>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B2">
         <v>1.88</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C18" si="1">-H2/I2</f>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D18" si="2">E2*F2*G2</f>
@@ -432,34 +430,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H2">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I46" si="3">J2/H2</f>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J46" si="4">K2*L2</f>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K2">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L2">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B3">
         <v>1.88</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="2"/>
@@ -475,34 +473,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H3">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J3">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K3">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L3">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B4">
         <v>1.88</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
@@ -518,34 +516,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K4">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L4">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B5">
         <v>1.88</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
@@ -561,34 +559,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K5">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L5">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B6">
         <v>1.88</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
@@ -604,34 +602,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H6">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K6">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L6">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B7">
         <v>1.88</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
@@ -647,34 +645,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H7">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K7">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L7">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B8">
         <v>1.88</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
@@ -690,34 +688,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H8">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K8">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L8">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B9">
         <v>1.88</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
@@ -733,34 +731,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K9">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L9">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B10">
         <v>1.88</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
@@ -776,34 +774,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H10">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K10">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L10">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B11">
         <v>1.88</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
@@ -819,34 +817,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H11">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K11">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L11">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B12">
         <v>1.88</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
@@ -862,34 +860,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H12">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K12">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L12">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B13">
         <v>1.88</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
@@ -905,34 +903,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K13">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L13">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B14">
         <v>1.88</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
@@ -948,34 +946,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H14">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K14">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L14">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B15">
         <v>1.88</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
@@ -991,34 +989,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H15">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K15">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L15">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B16">
         <v>1.88</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
@@ -1034,34 +1032,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H16">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K16">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L16">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B17">
         <v>1.88</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
@@ -1077,34 +1075,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H17">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K17">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L17">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B18">
         <v>1.88</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
@@ -1120,34 +1118,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H18">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K18">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L18">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" ref="A19:A46" si="5">H19/D19*C19/B19</f>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B19">
         <v>1.88</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C46" si="6">-H19/I19</f>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:D46" si="7">E19*F19*G19</f>
@@ -1163,34 +1161,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H19">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K19">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L19">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B20">
         <v>1.88</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="7"/>
@@ -1206,34 +1204,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H20">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K20">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L20">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B21">
         <v>1.88</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
@@ -1249,34 +1247,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H21">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K21">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L21">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B22">
         <v>1.88</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
@@ -1292,34 +1290,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H22">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K22">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L22">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B23">
         <v>1.88</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="7"/>
@@ -1335,34 +1333,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H23">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K23">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L23">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B24">
         <v>1.88</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
@@ -1378,34 +1376,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H24">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K24">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L24">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B25">
         <v>1.88</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
@@ -1421,34 +1419,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H25">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K25">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L25">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B26">
         <v>1.88</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
@@ -1464,34 +1462,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H26">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K26">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L26">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B27">
         <v>1.88</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
@@ -1507,34 +1505,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H27">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K27">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L27">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B28">
         <v>1.88</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
@@ -1550,34 +1548,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H28">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K28">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L28">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B29">
         <v>1.88</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
@@ -1593,34 +1591,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H29">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K29">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L29">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B30">
         <v>1.88</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
@@ -1636,34 +1634,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H30">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K30">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L30">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B31">
         <v>1.88</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
@@ -1679,34 +1677,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H31">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K31">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L31">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B32">
         <v>1.88</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
@@ -1722,34 +1720,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H32">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K32">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L32">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B33">
         <v>1.88</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
@@ -1765,34 +1763,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H33">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K33">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L33">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B34">
         <v>1.88</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="7"/>
@@ -1808,34 +1806,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H34">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K34">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L34">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B35">
         <v>1.88</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="7"/>
@@ -1851,34 +1849,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H35">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K35">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L35">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B36">
         <v>1.88</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="7"/>
@@ -1894,34 +1892,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H36">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K36">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L36">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B37">
         <v>1.88</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="7"/>
@@ -1937,34 +1935,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H37">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K37">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L37">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B38">
         <v>1.88</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="7"/>
@@ -1980,34 +1978,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H38">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K38">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L38">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B39">
         <v>1.88</v>
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="7"/>
@@ -2023,34 +2021,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H39">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K39">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L39">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B40">
         <v>1.88</v>
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="7"/>
@@ -2066,34 +2064,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K40">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L40">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B41">
         <v>1.88</v>
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="7"/>
@@ -2109,34 +2107,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H41">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K41">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L41">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B42">
         <v>1.88</v>
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="7"/>
@@ -2152,34 +2150,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H42">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K42">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L42">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B43">
         <v>1.88</v>
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="7"/>
@@ -2195,34 +2193,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H43">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K43">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L43">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B44">
         <v>1.88</v>
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="7"/>
@@ -2238,34 +2236,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H44">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K44">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L44">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="5"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B45">
         <v>1.88</v>
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="7"/>
@@ -2281,34 +2279,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="3"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K45">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L45">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="5"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B46">
         <v>1.88</v>
       </c>
       <c r="C46">
         <f t="shared" si="6"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="7"/>
@@ -2324,34 +2322,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H46">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="3"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K46">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L46">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f>H47/D47*C47/B47</f>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B47">
         <v>1.88</v>
       </c>
       <c r="C47">
         <f>-H47/I47</f>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D47" s="1">
         <f>E47*F47*G47</f>
@@ -2367,34 +2365,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H47">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I47" s="3">
         <f>J47/H47</f>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J47">
         <f>K47*L47</f>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K47">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L47">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" ref="A48:A92" si="8">H48/D48*C48/B48</f>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B48">
         <v>1.88</v>
       </c>
       <c r="C48">
         <f t="shared" ref="C48:C92" si="9">-H48/I48</f>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" ref="D48:D92" si="10">E48*F48*G48</f>
@@ -2410,34 +2408,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H48">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" ref="I48:I92" si="11">J48/H48</f>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J48">
         <f t="shared" ref="J48:J92" si="12">K48*L48</f>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K48">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L48">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B49">
         <v>1.88</v>
       </c>
       <c r="C49">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="10"/>
@@ -2453,34 +2451,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H49">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J49">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K49">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L49">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B50">
         <v>1.88</v>
       </c>
       <c r="C50">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="10"/>
@@ -2496,34 +2494,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J50">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K50">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L50">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B51">
         <v>1.88</v>
       </c>
       <c r="C51">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="10"/>
@@ -2539,34 +2537,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J51">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K51">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L51">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B52">
         <v>1.88</v>
       </c>
       <c r="C52">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="10"/>
@@ -2582,34 +2580,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H52">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J52">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K52">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L52">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B53">
         <v>1.88</v>
       </c>
       <c r="C53">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="10"/>
@@ -2625,34 +2623,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H53">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J53">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K53">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L53">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B54">
         <v>1.88</v>
       </c>
       <c r="C54">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="10"/>
@@ -2668,34 +2666,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H54">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J54">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K54">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L54">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B55">
         <v>1.88</v>
       </c>
       <c r="C55">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="10"/>
@@ -2711,34 +2709,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H55">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J55">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K55">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L55">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B56">
         <v>1.88</v>
       </c>
       <c r="C56">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="10"/>
@@ -2754,34 +2752,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H56">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J56">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K56">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L56">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B57">
         <v>1.88</v>
       </c>
       <c r="C57">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="10"/>
@@ -2797,34 +2795,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H57">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J57">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K57">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L57">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B58">
         <v>1.88</v>
       </c>
       <c r="C58">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="10"/>
@@ -2840,34 +2838,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H58">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J58">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K58">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L58">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B59">
         <v>1.88</v>
       </c>
       <c r="C59">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="10"/>
@@ -2883,34 +2881,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H59">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J59">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K59">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L59">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B60">
         <v>1.88</v>
       </c>
       <c r="C60">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="10"/>
@@ -2926,34 +2924,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H60">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J60">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K60">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L60">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="8"/>
-        <v>-5349.335940658505</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B61">
         <v>1.88</v>
       </c>
       <c r="C61">
         <f t="shared" si="9"/>
-        <v>4.7065597340289784</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="10"/>
@@ -2969,34 +2967,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H61">
-        <v>-550</v>
+        <v>-100</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="11"/>
-        <v>116.85817902690908</v>
+        <v>11.78</v>
       </c>
       <c r="J61">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K61">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L61">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B62">
         <v>1.88</v>
       </c>
       <c r="C62">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="10"/>
@@ -3012,34 +3010,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H62">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J62">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K62">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L62">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B63">
         <v>1.88</v>
       </c>
       <c r="C63">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="10"/>
@@ -3055,34 +3053,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H63">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J63">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K63">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L63">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B64">
         <v>1.88</v>
       </c>
       <c r="C64">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="10"/>
@@ -3098,34 +3096,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H64">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J64">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K64">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L64">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B65">
         <v>1.88</v>
       </c>
       <c r="C65">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="10"/>
@@ -3141,34 +3139,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H65">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J65">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K65">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L65">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B66">
         <v>1.88</v>
       </c>
       <c r="C66">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="10"/>
@@ -3184,34 +3182,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H66">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J66">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K66">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L66">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B67">
         <v>1.88</v>
       </c>
       <c r="C67">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="10"/>
@@ -3227,34 +3225,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H67">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I67" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J67">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K67">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L67">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B68">
         <v>1.88</v>
       </c>
       <c r="C68">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="10"/>
@@ -3270,34 +3268,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H68">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I68" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J68">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K68">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L68">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B69">
         <v>1.88</v>
       </c>
       <c r="C69">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D69" s="1">
         <f t="shared" si="10"/>
@@ -3313,34 +3311,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H69">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J69">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K69">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L69">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B70">
         <v>1.88</v>
       </c>
       <c r="C70">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="10"/>
@@ -3356,34 +3354,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H70">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J70">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K70">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L70">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B71">
         <v>1.88</v>
       </c>
       <c r="C71">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="10"/>
@@ -3399,34 +3397,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H71">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I71" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J71">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K71">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L71">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B72">
         <v>1.88</v>
       </c>
       <c r="C72">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="10"/>
@@ -3442,34 +3440,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H72">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J72">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K72">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L72">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B73">
         <v>1.88</v>
       </c>
       <c r="C73">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="10"/>
@@ -3485,34 +3483,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H73">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I73" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J73">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K73">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L73">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B74">
         <v>1.88</v>
       </c>
       <c r="C74">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="10"/>
@@ -3528,34 +3526,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H74">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J74">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K74">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L74">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B75">
         <v>1.88</v>
       </c>
       <c r="C75">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="10"/>
@@ -3571,34 +3569,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H75">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I75" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J75">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K75">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L75">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B76">
         <v>1.88</v>
       </c>
       <c r="C76">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="10"/>
@@ -3614,34 +3612,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H76">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J76">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K76">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L76">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B77">
         <v>1.88</v>
       </c>
       <c r="C77">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="10"/>
@@ -3657,34 +3655,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H77">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J77">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K77">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L77">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B78">
         <v>1.88</v>
       </c>
       <c r="C78">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="10"/>
@@ -3700,34 +3698,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H78">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J78">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K78">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L78">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B79">
         <v>1.88</v>
       </c>
       <c r="C79">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="10"/>
@@ -3743,34 +3741,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H79">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I79" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J79">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K79">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L79">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B80">
         <v>1.88</v>
       </c>
       <c r="C80">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="10"/>
@@ -3786,34 +3784,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H80">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I80" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J80">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K80">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L80">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B81">
         <v>1.88</v>
       </c>
       <c r="C81">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="10"/>
@@ -3829,34 +3827,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H81">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J81">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K81">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L81">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B82">
         <v>1.88</v>
       </c>
       <c r="C82">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="10"/>
@@ -3872,34 +3870,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H82">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I82" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J82">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K82">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L82">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B83">
         <v>1.88</v>
       </c>
       <c r="C83">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="10"/>
@@ -3915,34 +3913,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H83">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I83" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J83">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K83">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L83">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B84">
         <v>1.88</v>
       </c>
       <c r="C84">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="10"/>
@@ -3958,34 +3956,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H84">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J84">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K84">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L84">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B85">
         <v>1.88</v>
       </c>
       <c r="C85">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="10"/>
@@ -4001,34 +3999,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H85">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I85" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J85">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K85">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L85">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B86">
         <v>1.88</v>
       </c>
       <c r="C86">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="10"/>
@@ -4044,34 +4042,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H86">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J86">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K86">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L86">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B87">
         <v>1.88</v>
       </c>
       <c r="C87">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="10"/>
@@ -4087,34 +4085,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H87">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I87" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J87">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K87">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L87">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B88">
         <v>1.88</v>
       </c>
       <c r="C88">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="10"/>
@@ -4130,34 +4128,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H88">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I88" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J88">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K88">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L88">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B89">
         <v>1.88</v>
       </c>
       <c r="C89">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="10"/>
@@ -4173,34 +4171,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H89">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J89">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K89">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L89">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B90">
         <v>1.88</v>
       </c>
       <c r="C90">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="10"/>
@@ -4216,34 +4214,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H90">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I90" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J90">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K90">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L90">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <f t="shared" si="8"/>
-        <v>-12000.775003329261</v>
+        <v>-1754.237205597246</v>
       </c>
       <c r="B91">
         <v>1.88</v>
       </c>
       <c r="C91">
         <f t="shared" si="9"/>
-        <v>8.0657208797375954</v>
+        <v>8.4889643463497464</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="10"/>
@@ -4259,34 +4257,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H91">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <f t="shared" si="11"/>
-        <v>89.266664534444445</v>
+        <v>11.78</v>
       </c>
       <c r="J91">
         <f t="shared" si="12"/>
-        <v>-64271.998464799995</v>
+        <v>-1178</v>
       </c>
       <c r="K91">
-        <v>-1570</v>
+        <v>-31</v>
       </c>
       <c r="L91">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <f t="shared" si="8"/>
-        <v>-12560.811170151293</v>
+        <v>-1812.711779117154</v>
       </c>
       <c r="B92">
         <v>1.88</v>
       </c>
       <c r="C92">
         <f t="shared" si="9"/>
-        <v>8.4421211874586835</v>
+        <v>8.7719298245614024</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="10"/>
@@ -4302,21 +4300,21 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H92">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I92" s="3">
         <f t="shared" si="11"/>
-        <v>85.28662216666666</v>
+        <v>11.4</v>
       </c>
       <c r="J92">
         <f t="shared" si="12"/>
-        <v>-61406.367959999996</v>
+        <v>-1140</v>
       </c>
       <c r="K92">
-        <v>-1500</v>
+        <v>-30</v>
       </c>
       <c r="L92">
-        <v>40.937578639999998</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
